--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3809.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3809.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.6891025259659</v>
+        <v>4.768452167510986</v>
       </c>
       <c r="B1">
-        <v>2.054325284423189</v>
+        <v>6.651125431060791</v>
       </c>
       <c r="C1">
-        <v>2.811915703106195</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.081989577908604</v>
+        <v>3.796440839767456</v>
       </c>
       <c r="E1">
-        <v>0.7071472326605525</v>
+        <v>1.767792820930481</v>
       </c>
     </row>
   </sheetData>
